--- a/1. Obtención Y Procesado de Datos/Estado legal especies/EIDOS_estado_legal.xlsx
+++ b/1. Obtención Y Procesado de Datos/Estado legal especies/EIDOS_estado_legal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B697"/>
+  <dimension ref="A1:B648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -467,7 +467,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>90</v>
+        <v>512</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>512</v>
+        <v>765</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>765</v>
+        <v>989</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>989</v>
+        <v>1075</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -507,7 +507,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -527,7 +527,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1078</v>
+        <v>1085</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -547,7 +547,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1086</v>
+        <v>1522</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -567,7 +567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1090</v>
+        <v>1523</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1522</v>
+        <v>1524</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -587,7 +587,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -597,7 +597,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1524</v>
+        <v>1807</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1525</v>
+        <v>1906</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -617,7 +617,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1807</v>
+        <v>1908</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -627,7 +627,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1906</v>
+        <v>1912</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1908</v>
+        <v>1941</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -647,7 +647,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1912</v>
+        <v>2282</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1941</v>
+        <v>2284</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2282</v>
+        <v>2382</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2284</v>
+        <v>2726</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2382</v>
+        <v>2727</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2726</v>
+        <v>2728</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2727</v>
+        <v>2804</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2728</v>
+        <v>3172</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -727,7 +727,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2804</v>
+        <v>3174</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -737,7 +737,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3172</v>
+        <v>3374</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3174</v>
+        <v>3942</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3374</v>
+        <v>4258</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -767,7 +767,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3942</v>
+        <v>4260</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4258</v>
+        <v>4292</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4260</v>
+        <v>4442</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4292</v>
+        <v>4570</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4442</v>
+        <v>5375</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -817,7 +817,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4570</v>
+        <v>6076</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -827,7 +827,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5375</v>
+        <v>6077</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -837,7 +837,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6076</v>
+        <v>6079</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -847,7 +847,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6077</v>
+        <v>6312</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -857,7 +857,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6079</v>
+        <v>6488</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -867,7 +867,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6312</v>
+        <v>6569</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6312</v>
+        <v>6757</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6488</v>
+        <v>6759</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -897,7 +897,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6569</v>
+        <v>6761</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -907,7 +907,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6569</v>
+        <v>6762</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -917,17 +917,17 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6569</v>
+        <v>6897</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CEEEI: Excluido</t>
+          <t>CEEEI: Incluido</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6757</v>
+        <v>7089</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -937,7 +937,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6759</v>
+        <v>7682</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -947,7 +947,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6761</v>
+        <v>7788</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -957,7 +957,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6762</v>
+        <v>7945</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6762</v>
+        <v>7946</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6897</v>
+        <v>8574</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -987,7 +987,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>7089</v>
+        <v>9029</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -997,7 +997,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7682</v>
+        <v>9130</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7682</v>
+        <v>9489</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -1017,7 +1017,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7788</v>
+        <v>9545</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7945</v>
+        <v>9616</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7946</v>
+        <v>9652</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>8574</v>
+        <v>9654</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9029</v>
+        <v>9745</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -1067,7 +1067,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9130</v>
+        <v>9766</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -1077,7 +1077,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>9489</v>
+        <v>9924</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9545</v>
+        <v>10093</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9545</v>
+        <v>10468</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>9616</v>
+        <v>10470</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>9652</v>
+        <v>10471</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>9654</v>
+        <v>10472</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -1137,7 +1137,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9745</v>
+        <v>10473</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9766</v>
+        <v>10476</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>9924</v>
+        <v>10478</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10093</v>
+        <v>10479</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -1177,7 +1177,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>10468</v>
+        <v>10480</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>10470</v>
+        <v>10481</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10471</v>
+        <v>10482</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>10472</v>
+        <v>10485</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10473</v>
+        <v>10486</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10476</v>
+        <v>10487</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>10478</v>
+        <v>10489</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>10479</v>
+        <v>10492</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>10480</v>
+        <v>10493</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>10481</v>
+        <v>10501</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>10481</v>
+        <v>10502</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>10482</v>
+        <v>10504</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>10485</v>
+        <v>10507</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>10486</v>
+        <v>10508</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10487</v>
+        <v>10510</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>10489</v>
+        <v>10511</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>10492</v>
+        <v>10512</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>10493</v>
+        <v>10513</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>10501</v>
+        <v>10514</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10502</v>
+        <v>10515</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>10504</v>
+        <v>10516</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>10507</v>
+        <v>10520</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>10508</v>
+        <v>10523</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>10510</v>
+        <v>10528</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>10511</v>
+        <v>10529</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -1427,7 +1427,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>10512</v>
+        <v>10530</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>10513</v>
+        <v>10531</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>10514</v>
+        <v>10534</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>10515</v>
+        <v>10535</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>10516</v>
+        <v>10536</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>10520</v>
+        <v>10537</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>10523</v>
+        <v>10538</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10528</v>
+        <v>10539</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>10529</v>
+        <v>10540</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -1517,7 +1517,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10530</v>
+        <v>10542</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>10531</v>
+        <v>10543</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -1537,7 +1537,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>10531</v>
+        <v>10544</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>10534</v>
+        <v>10545</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10535</v>
+        <v>10547</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>10536</v>
+        <v>10548</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10537</v>
+        <v>10552</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>10538</v>
+        <v>10553</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>10539</v>
+        <v>10554</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10540</v>
+        <v>10555</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10542</v>
+        <v>10557</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -1627,7 +1627,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>10543</v>
+        <v>10559</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>10544</v>
+        <v>10561</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>10545</v>
+        <v>10564</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>10547</v>
+        <v>10565</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>10548</v>
+        <v>10566</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -1677,7 +1677,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>10552</v>
+        <v>10570</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>10553</v>
+        <v>10572</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>10554</v>
+        <v>10573</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -1707,7 +1707,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>10555</v>
+        <v>10574</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10557</v>
+        <v>10575</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10559</v>
+        <v>10576</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>10561</v>
+        <v>10579</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>10564</v>
+        <v>10581</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>10565</v>
+        <v>10582</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>10566</v>
+        <v>10583</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>10570</v>
+        <v>10584</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10572</v>
+        <v>10585</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>10573</v>
+        <v>10586</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>10574</v>
+        <v>10587</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>10575</v>
+        <v>10588</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>10576</v>
+        <v>10589</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>10579</v>
+        <v>10590</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10581</v>
+        <v>10591</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>10581</v>
+        <v>10592</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>10582</v>
+        <v>10593</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10583</v>
+        <v>10594</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10584</v>
+        <v>10595</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10585</v>
+        <v>10596</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10586</v>
+        <v>10597</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10587</v>
+        <v>10598</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10588</v>
+        <v>10599</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10589</v>
+        <v>10600</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10590</v>
+        <v>10601</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10591</v>
+        <v>10602</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10592</v>
+        <v>10603</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -1977,7 +1977,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>10593</v>
+        <v>10604</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -1987,7 +1987,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10594</v>
+        <v>10605</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10595</v>
+        <v>10606</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10596</v>
+        <v>10607</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10597</v>
+        <v>10608</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>10598</v>
+        <v>10718</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10599</v>
+        <v>10775</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10600</v>
+        <v>10913</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10601</v>
+        <v>10979</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>10602</v>
+        <v>11017</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10603</v>
+        <v>11028</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10604</v>
+        <v>11106</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>10605</v>
+        <v>11356</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>10606</v>
+        <v>11362</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>10607</v>
+        <v>11448</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10608</v>
+        <v>11616</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -2137,17 +2137,17 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10718</v>
+        <v>11678</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>CEEEI: Incluido</t>
+          <t>CEEEI: Excluido</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>10775</v>
+        <v>11688</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>10913</v>
+        <v>11696</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>10979</v>
+        <v>11710</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -2177,7 +2177,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>11017</v>
+        <v>11772</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>11028</v>
+        <v>11802</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>11106</v>
+        <v>11815</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>11356</v>
+        <v>11912</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>11362</v>
+        <v>12167</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -2227,7 +2227,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>11448</v>
+        <v>12177</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>11616</v>
+        <v>12335</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>11678</v>
+        <v>12339</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -2257,17 +2257,17 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>11678</v>
+        <v>12402</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>CEEEI: Excluido</t>
+          <t>CEEEI: Incluido</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>11688</v>
+        <v>12409</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>11696</v>
+        <v>12472</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>11710</v>
+        <v>12475</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>11772</v>
+        <v>12486</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -2307,7 +2307,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>11802</v>
+        <v>12917</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>11815</v>
+        <v>13128</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>11912</v>
+        <v>13367</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>12167</v>
+        <v>13368</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>12177</v>
+        <v>13572</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>12335</v>
+        <v>13664</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>12339</v>
+        <v>13852</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>12402</v>
+        <v>16237</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>12409</v>
+        <v>16240</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>12472</v>
+        <v>16241</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>12475</v>
+        <v>16242</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>12486</v>
+        <v>18874</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>12917</v>
+        <v>19151</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>13128</v>
+        <v>19182</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>13367</v>
+        <v>19289</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>13368</v>
+        <v>20421</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>13572</v>
+        <v>21365</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>13664</v>
+        <v>22502</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>13852</v>
+        <v>23752</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>16237</v>
+        <v>24210</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>16240</v>
+        <v>26334</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>16241</v>
+        <v>26376</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>16242</v>
+        <v>26887</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>18874</v>
+        <v>26888</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>19151</v>
+        <v>26890</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>19182</v>
+        <v>27543</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>19289</v>
+        <v>28046</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>20421</v>
+        <v>28325</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>21365</v>
+        <v>28375</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>22502</v>
+        <v>28376</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>23752</v>
+        <v>28499</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>24210</v>
+        <v>28500</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>26334</v>
+        <v>28653</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>26376</v>
+        <v>28868</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>26887</v>
+        <v>28891</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>26888</v>
+        <v>29010</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>26890</v>
+        <v>29030</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>27543</v>
+        <v>29031</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>28046</v>
+        <v>29032</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>28325</v>
+        <v>29033</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>28375</v>
+        <v>29034</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>28376</v>
+        <v>29195</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>28499</v>
+        <v>29323</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>28500</v>
+        <v>29324</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>28653</v>
+        <v>29325</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>28868</v>
+        <v>29326</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>28868</v>
+        <v>29327</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>28891</v>
+        <v>29328</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -2787,7 +2787,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>29010</v>
+        <v>29329</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>29030</v>
+        <v>29337</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>29031</v>
+        <v>29339</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>29032</v>
+        <v>29431</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>29033</v>
+        <v>29496</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>29034</v>
+        <v>29544</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>29195</v>
+        <v>29658</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>29195</v>
+        <v>29766</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -2867,7 +2867,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>29323</v>
+        <v>29797</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>29324</v>
+        <v>29798</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>29325</v>
+        <v>29799</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>29326</v>
+        <v>29985</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>29327</v>
+        <v>30138</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>29328</v>
+        <v>30172</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>29329</v>
+        <v>30173</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>29337</v>
+        <v>30349</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -2947,7 +2947,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>29339</v>
+        <v>30961</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -2957,7 +2957,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>29431</v>
+        <v>31052</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>29496</v>
+        <v>31083</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>29496</v>
+        <v>31115</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>29544</v>
+        <v>31429</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>29658</v>
+        <v>31443</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>29658</v>
+        <v>31444</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>29766</v>
+        <v>32249</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>29797</v>
+        <v>32250</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>29798</v>
+        <v>32251</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>29799</v>
+        <v>32252</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>29985</v>
+        <v>32342</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>30138</v>
+        <v>32484</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
@@ -3077,7 +3077,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>30172</v>
+        <v>33095</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>30172</v>
+        <v>34258</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>30173</v>
+        <v>36127</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
@@ -3107,7 +3107,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>30349</v>
+        <v>36578</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>30961</v>
+        <v>36636</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>31052</v>
+        <v>36637</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>31083</v>
+        <v>36648</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>31115</v>
+        <v>37403</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>31429</v>
+        <v>37404</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>31443</v>
+        <v>37405</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>31444</v>
+        <v>37406</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>32249</v>
+        <v>60574</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>32250</v>
+        <v>61287</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>32251</v>
+        <v>62583</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>32251</v>
+        <v>68003</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
@@ -3227,7 +3227,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>32252</v>
+        <v>68016</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
@@ -3237,7 +3237,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>32342</v>
+        <v>79193</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>32484</v>
+        <v>79194</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>33095</v>
+        <v>79195</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>34258</v>
+        <v>79196</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
@@ -3277,7 +3277,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>36127</v>
+        <v>79197</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>36578</v>
+        <v>79198</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>36636</v>
+        <v>79199</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>36637</v>
+        <v>79200</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>36648</v>
+        <v>79201</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>37403</v>
+        <v>79202</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>37404</v>
+        <v>79203</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>37405</v>
+        <v>79204</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>37406</v>
+        <v>79205</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>60574</v>
+        <v>79206</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>60574</v>
+        <v>79269</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>61287</v>
+        <v>79270</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>61287</v>
+        <v>79330</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>62583</v>
+        <v>79332</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>62583</v>
+        <v>79337</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>68003</v>
+        <v>79491</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
@@ -3437,7 +3437,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>68016</v>
+        <v>79492</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>79193</v>
+        <v>79520</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
@@ -3457,7 +3457,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>79193</v>
+        <v>80215</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>79193</v>
+        <v>81375</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>79193</v>
+        <v>83414</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>79194</v>
+        <v>201611</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
@@ -3497,7 +3497,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>79194</v>
+        <v>201651</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>79194</v>
+        <v>202031</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>79194</v>
+        <v>203883</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>79195</v>
+        <v>204091</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>79195</v>
+        <v>205264</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>79195</v>
+        <v>205779</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>79195</v>
+        <v>205824</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>79196</v>
+        <v>205825</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
@@ -3577,7 +3577,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>79196</v>
+        <v>205832</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>79196</v>
+        <v>205989</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>79196</v>
+        <v>206072</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>79196</v>
+        <v>206073</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>79196</v>
+        <v>206076</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
@@ -3627,7 +3627,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>79196</v>
+        <v>206086</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>79196</v>
+        <v>206087</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>79196</v>
+        <v>206088</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>79196</v>
+        <v>206089</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
@@ -3667,7 +3667,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>79196</v>
+        <v>206090</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
@@ -3677,7 +3677,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>79196</v>
+        <v>206091</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>79197</v>
+        <v>206092</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>79197</v>
+        <v>206094</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>79197</v>
+        <v>208976</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>79197</v>
+        <v>210134</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>79198</v>
+        <v>210514</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
@@ -3737,7 +3737,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>79199</v>
+        <v>210528</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
@@ -3747,7 +3747,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>79200</v>
+        <v>210531</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>79201</v>
+        <v>211037</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>79202</v>
+        <v>237584</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>79203</v>
+        <v>237621</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>79204</v>
+        <v>237788</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
@@ -3797,7 +3797,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>79205</v>
+        <v>237804</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>79206</v>
+        <v>237934</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
@@ -3817,7 +3817,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>79269</v>
+        <v>237975</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>79269</v>
+        <v>237994</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
@@ -3837,7 +3837,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>79270</v>
+        <v>238059</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>79270</v>
+        <v>238165</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>79330</v>
+        <v>238271</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
@@ -3867,7 +3867,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>79332</v>
+        <v>238354</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
@@ -3877,7 +3877,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>79337</v>
+        <v>238540</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>79491</v>
+        <v>238564</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>79492</v>
+        <v>238680</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>79520</v>
+        <v>238686</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>80215</v>
+        <v>242808</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>81375</v>
+        <v>259051</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
@@ -3937,7 +3937,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>81375</v>
+        <v>311059</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>83414</v>
+        <v>311060</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>201611</v>
+        <v>311061</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>201611</v>
+        <v>311062</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>201651</v>
+        <v>311063</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>202031</v>
+        <v>311064</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>203883</v>
+        <v>311065</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>204091</v>
+        <v>311066</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>205264</v>
+        <v>311067</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>205779</v>
+        <v>311068</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>205824</v>
+        <v>311069</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>205825</v>
+        <v>311070</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>205832</v>
+        <v>311071</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>205989</v>
+        <v>311072</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>206072</v>
+        <v>311073</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>206073</v>
+        <v>311074</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>206076</v>
+        <v>311075</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>206086</v>
+        <v>311076</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>206087</v>
+        <v>311077</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>206088</v>
+        <v>311078</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>206089</v>
+        <v>311079</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
@@ -4147,7 +4147,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>206090</v>
+        <v>311080</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>206091</v>
+        <v>311081</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>206092</v>
+        <v>311082</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>206094</v>
+        <v>311083</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>208976</v>
+        <v>311084</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
@@ -4197,7 +4197,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>208976</v>
+        <v>311085</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>210134</v>
+        <v>311086</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
@@ -4217,7 +4217,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>210514</v>
+        <v>311087</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>210528</v>
+        <v>311088</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>210531</v>
+        <v>311089</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>211037</v>
+        <v>311090</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>237584</v>
+        <v>311091</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>237621</v>
+        <v>311092</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>237788</v>
+        <v>311093</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>237804</v>
+        <v>311094</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>237934</v>
+        <v>311095</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
@@ -4307,7 +4307,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>237975</v>
+        <v>311096</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>237994</v>
+        <v>311097</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>238059</v>
+        <v>311098</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>238165</v>
+        <v>311099</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>238271</v>
+        <v>311100</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>238354</v>
+        <v>311101</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>238540</v>
+        <v>311102</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>238564</v>
+        <v>311103</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>238680</v>
+        <v>311104</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>238686</v>
+        <v>311105</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>242808</v>
+        <v>311106</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>259051</v>
+        <v>311107</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>311059</v>
+        <v>311108</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>311060</v>
+        <v>311109</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>311061</v>
+        <v>311110</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>311062</v>
+        <v>311111</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
@@ -4467,7 +4467,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>311063</v>
+        <v>311112</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>311064</v>
+        <v>311113</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>311065</v>
+        <v>311114</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>311066</v>
+        <v>311115</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>311067</v>
+        <v>311116</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>311068</v>
+        <v>311117</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>311069</v>
+        <v>311118</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>311070</v>
+        <v>311119</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>311071</v>
+        <v>311120</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
@@ -4557,7 +4557,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>311072</v>
+        <v>311121</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>311073</v>
+        <v>311122</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>311074</v>
+        <v>311123</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>311075</v>
+        <v>311124</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>311076</v>
+        <v>311125</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>311077</v>
+        <v>311126</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>311078</v>
+        <v>311127</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>311079</v>
+        <v>311128</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>311080</v>
+        <v>311129</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>311081</v>
+        <v>311130</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>311082</v>
+        <v>311131</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>311083</v>
+        <v>311132</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>311084</v>
+        <v>311133</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>311085</v>
+        <v>311134</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>311086</v>
+        <v>311135</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>311087</v>
+        <v>311136</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>311088</v>
+        <v>311137</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>311089</v>
+        <v>311138</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
@@ -4737,7 +4737,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>311090</v>
+        <v>311139</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
@@ -4747,7 +4747,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>311091</v>
+        <v>311140</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>311092</v>
+        <v>311141</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>311093</v>
+        <v>311142</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>311094</v>
+        <v>311143</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>311095</v>
+        <v>311144</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>311096</v>
+        <v>311145</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>311097</v>
+        <v>311146</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>311098</v>
+        <v>311147</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>311099</v>
+        <v>311148</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>311100</v>
+        <v>311149</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>311101</v>
+        <v>311150</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>311102</v>
+        <v>311151</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>311103</v>
+        <v>311152</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>311104</v>
+        <v>311153</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>311105</v>
+        <v>311154</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>311106</v>
+        <v>311155</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>311107</v>
+        <v>311156</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>311108</v>
+        <v>311157</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>311109</v>
+        <v>311158</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>311110</v>
+        <v>311159</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>311111</v>
+        <v>311160</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
@@ -4957,7 +4957,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>311112</v>
+        <v>311161</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
@@ -4967,7 +4967,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>311113</v>
+        <v>311162</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>311114</v>
+        <v>311163</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>311115</v>
+        <v>311164</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>311116</v>
+        <v>311165</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>311117</v>
+        <v>311166</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>311118</v>
+        <v>311167</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
@@ -5027,7 +5027,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>311119</v>
+        <v>311168</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>311120</v>
+        <v>311169</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
@@ -5047,7 +5047,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>311121</v>
+        <v>311170</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
@@ -5057,7 +5057,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>311122</v>
+        <v>311171</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>311123</v>
+        <v>311172</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>311124</v>
+        <v>311173</v>
       </c>
       <c r="B465" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>311125</v>
+        <v>311174</v>
       </c>
       <c r="B466" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>311126</v>
+        <v>311175</v>
       </c>
       <c r="B467" t="inlineStr">
         <is>
@@ -5107,7 +5107,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>311127</v>
+        <v>311176</v>
       </c>
       <c r="B468" t="inlineStr">
         <is>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>311128</v>
+        <v>311177</v>
       </c>
       <c r="B469" t="inlineStr">
         <is>
@@ -5127,7 +5127,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>311129</v>
+        <v>311178</v>
       </c>
       <c r="B470" t="inlineStr">
         <is>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>311130</v>
+        <v>311179</v>
       </c>
       <c r="B471" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>311131</v>
+        <v>311180</v>
       </c>
       <c r="B472" t="inlineStr">
         <is>
@@ -5157,7 +5157,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>311132</v>
+        <v>311181</v>
       </c>
       <c r="B473" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>311133</v>
+        <v>311182</v>
       </c>
       <c r="B474" t="inlineStr">
         <is>
@@ -5177,7 +5177,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>311134</v>
+        <v>311183</v>
       </c>
       <c r="B475" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>311135</v>
+        <v>311184</v>
       </c>
       <c r="B476" t="inlineStr">
         <is>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>311136</v>
+        <v>311185</v>
       </c>
       <c r="B477" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>311137</v>
+        <v>311186</v>
       </c>
       <c r="B478" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>311138</v>
+        <v>311187</v>
       </c>
       <c r="B479" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>311139</v>
+        <v>311188</v>
       </c>
       <c r="B480" t="inlineStr">
         <is>
@@ -5237,7 +5237,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>311140</v>
+        <v>311189</v>
       </c>
       <c r="B481" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>311141</v>
+        <v>311190</v>
       </c>
       <c r="B482" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>311142</v>
+        <v>311191</v>
       </c>
       <c r="B483" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>311143</v>
+        <v>311192</v>
       </c>
       <c r="B484" t="inlineStr">
         <is>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>311144</v>
+        <v>311193</v>
       </c>
       <c r="B485" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>311145</v>
+        <v>311194</v>
       </c>
       <c r="B486" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>311146</v>
+        <v>311195</v>
       </c>
       <c r="B487" t="inlineStr">
         <is>
@@ -5307,7 +5307,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>311147</v>
+        <v>311196</v>
       </c>
       <c r="B488" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>311148</v>
+        <v>311197</v>
       </c>
       <c r="B489" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>311149</v>
+        <v>311198</v>
       </c>
       <c r="B490" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>311150</v>
+        <v>311199</v>
       </c>
       <c r="B491" t="inlineStr">
         <is>
@@ -5347,7 +5347,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>311151</v>
+        <v>311200</v>
       </c>
       <c r="B492" t="inlineStr">
         <is>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>311152</v>
+        <v>311201</v>
       </c>
       <c r="B493" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>311153</v>
+        <v>311202</v>
       </c>
       <c r="B494" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>311154</v>
+        <v>311203</v>
       </c>
       <c r="B495" t="inlineStr">
         <is>
@@ -5387,7 +5387,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>311155</v>
+        <v>311204</v>
       </c>
       <c r="B496" t="inlineStr">
         <is>
@@ -5397,7 +5397,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>311156</v>
+        <v>311205</v>
       </c>
       <c r="B497" t="inlineStr">
         <is>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>311157</v>
+        <v>311206</v>
       </c>
       <c r="B498" t="inlineStr">
         <is>
@@ -5417,7 +5417,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>311158</v>
+        <v>311207</v>
       </c>
       <c r="B499" t="inlineStr">
         <is>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>311159</v>
+        <v>311208</v>
       </c>
       <c r="B500" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>311160</v>
+        <v>311209</v>
       </c>
       <c r="B501" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>311161</v>
+        <v>311210</v>
       </c>
       <c r="B502" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>311162</v>
+        <v>311211</v>
       </c>
       <c r="B503" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>311163</v>
+        <v>311212</v>
       </c>
       <c r="B504" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>311164</v>
+        <v>311213</v>
       </c>
       <c r="B505" t="inlineStr">
         <is>
@@ -5487,7 +5487,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>311165</v>
+        <v>311214</v>
       </c>
       <c r="B506" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>311166</v>
+        <v>311215</v>
       </c>
       <c r="B507" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>311167</v>
+        <v>311216</v>
       </c>
       <c r="B508" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>311168</v>
+        <v>311217</v>
       </c>
       <c r="B509" t="inlineStr">
         <is>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>311169</v>
+        <v>311218</v>
       </c>
       <c r="B510" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>311170</v>
+        <v>311219</v>
       </c>
       <c r="B511" t="inlineStr">
         <is>
@@ -5547,7 +5547,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>311171</v>
+        <v>311220</v>
       </c>
       <c r="B512" t="inlineStr">
         <is>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>311172</v>
+        <v>311221</v>
       </c>
       <c r="B513" t="inlineStr">
         <is>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>311173</v>
+        <v>311222</v>
       </c>
       <c r="B514" t="inlineStr">
         <is>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>311174</v>
+        <v>311223</v>
       </c>
       <c r="B515" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>311175</v>
+        <v>311224</v>
       </c>
       <c r="B516" t="inlineStr">
         <is>
@@ -5597,7 +5597,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>311176</v>
+        <v>311225</v>
       </c>
       <c r="B517" t="inlineStr">
         <is>
@@ -5607,7 +5607,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>311177</v>
+        <v>311226</v>
       </c>
       <c r="B518" t="inlineStr">
         <is>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>311178</v>
+        <v>311227</v>
       </c>
       <c r="B519" t="inlineStr">
         <is>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>311179</v>
+        <v>311228</v>
       </c>
       <c r="B520" t="inlineStr">
         <is>
@@ -5637,7 +5637,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>311180</v>
+        <v>311229</v>
       </c>
       <c r="B521" t="inlineStr">
         <is>
@@ -5647,7 +5647,7 @@
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>311181</v>
+        <v>311230</v>
       </c>
       <c r="B522" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>311182</v>
+        <v>311231</v>
       </c>
       <c r="B523" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>311183</v>
+        <v>311232</v>
       </c>
       <c r="B524" t="inlineStr">
         <is>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>311184</v>
+        <v>311233</v>
       </c>
       <c r="B525" t="inlineStr">
         <is>
@@ -5687,7 +5687,7 @@
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>311185</v>
+        <v>311234</v>
       </c>
       <c r="B526" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>311186</v>
+        <v>311235</v>
       </c>
       <c r="B527" t="inlineStr">
         <is>
@@ -5707,7 +5707,7 @@
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>311187</v>
+        <v>311236</v>
       </c>
       <c r="B528" t="inlineStr">
         <is>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>311188</v>
+        <v>311237</v>
       </c>
       <c r="B529" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>311189</v>
+        <v>311238</v>
       </c>
       <c r="B530" t="inlineStr">
         <is>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>311190</v>
+        <v>311239</v>
       </c>
       <c r="B531" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>311191</v>
+        <v>311240</v>
       </c>
       <c r="B532" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>311192</v>
+        <v>311241</v>
       </c>
       <c r="B533" t="inlineStr">
         <is>
@@ -5767,7 +5767,7 @@
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>311193</v>
+        <v>311242</v>
       </c>
       <c r="B534" t="inlineStr">
         <is>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>311194</v>
+        <v>311243</v>
       </c>
       <c r="B535" t="inlineStr">
         <is>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>311195</v>
+        <v>311244</v>
       </c>
       <c r="B536" t="inlineStr">
         <is>
@@ -5797,7 +5797,7 @@
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>311196</v>
+        <v>311245</v>
       </c>
       <c r="B537" t="inlineStr">
         <is>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>311197</v>
+        <v>311246</v>
       </c>
       <c r="B538" t="inlineStr">
         <is>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>311198</v>
+        <v>311247</v>
       </c>
       <c r="B539" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>311199</v>
+        <v>311248</v>
       </c>
       <c r="B540" t="inlineStr">
         <is>
@@ -5837,7 +5837,7 @@
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>311200</v>
+        <v>311249</v>
       </c>
       <c r="B541" t="inlineStr">
         <is>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>311201</v>
+        <v>311250</v>
       </c>
       <c r="B542" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>311202</v>
+        <v>311251</v>
       </c>
       <c r="B543" t="inlineStr">
         <is>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>311203</v>
+        <v>311252</v>
       </c>
       <c r="B544" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>311204</v>
+        <v>311253</v>
       </c>
       <c r="B545" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>311205</v>
+        <v>311254</v>
       </c>
       <c r="B546" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>311206</v>
+        <v>311255</v>
       </c>
       <c r="B547" t="inlineStr">
         <is>
@@ -5907,7 +5907,7 @@
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>311207</v>
+        <v>311256</v>
       </c>
       <c r="B548" t="inlineStr">
         <is>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>311208</v>
+        <v>311257</v>
       </c>
       <c r="B549" t="inlineStr">
         <is>
@@ -5927,7 +5927,7 @@
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>311209</v>
+        <v>311258</v>
       </c>
       <c r="B550" t="inlineStr">
         <is>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>311210</v>
+        <v>311259</v>
       </c>
       <c r="B551" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>311211</v>
+        <v>311260</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>311212</v>
+        <v>311261</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
@@ -5967,7 +5967,7 @@
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>311213</v>
+        <v>311262</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>311214</v>
+        <v>311263</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
@@ -5987,7 +5987,7 @@
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>311215</v>
+        <v>311264</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>311216</v>
+        <v>311265</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
@@ -6007,7 +6007,7 @@
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>311217</v>
+        <v>311266</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>311218</v>
+        <v>311267</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>311219</v>
+        <v>311268</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>311220</v>
+        <v>311269</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>311221</v>
+        <v>311270</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
@@ -6057,7 +6057,7 @@
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>311222</v>
+        <v>311271</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>311223</v>
+        <v>311272</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>311224</v>
+        <v>311273</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
@@ -6087,7 +6087,7 @@
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>311225</v>
+        <v>311274</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>311226</v>
+        <v>311275</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>311227</v>
+        <v>311276</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
@@ -6117,7 +6117,7 @@
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>311228</v>
+        <v>311277</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
@@ -6127,7 +6127,7 @@
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>311229</v>
+        <v>311278</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
@@ -6137,7 +6137,7 @@
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>311230</v>
+        <v>311279</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>311231</v>
+        <v>311280</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>311232</v>
+        <v>311281</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>311233</v>
+        <v>311282</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
@@ -6177,7 +6177,7 @@
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>311234</v>
+        <v>311283</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
@@ -6187,7 +6187,7 @@
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>311235</v>
+        <v>311284</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
@@ -6197,7 +6197,7 @@
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>311236</v>
+        <v>311285</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>311237</v>
+        <v>311286</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>311238</v>
+        <v>311287</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>311239</v>
+        <v>311288</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>311240</v>
+        <v>311289</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>311241</v>
+        <v>311290</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>311242</v>
+        <v>311291</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
@@ -6267,7 +6267,7 @@
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>311243</v>
+        <v>311292</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>311244</v>
+        <v>311293</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
@@ -6287,7 +6287,7 @@
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>311245</v>
+        <v>311294</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>311246</v>
+        <v>311295</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
@@ -6307,7 +6307,7 @@
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>311247</v>
+        <v>311296</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
@@ -6317,7 +6317,7 @@
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>311248</v>
+        <v>311297</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>311249</v>
+        <v>311298</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>311250</v>
+        <v>311299</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>311251</v>
+        <v>311300</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>311252</v>
+        <v>311301</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>311253</v>
+        <v>311302</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>311254</v>
+        <v>311303</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>311255</v>
+        <v>311304</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>311256</v>
+        <v>311305</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>311257</v>
+        <v>311306</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>311258</v>
+        <v>311307</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>311259</v>
+        <v>311308</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>311260</v>
+        <v>311309</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
@@ -6447,7 +6447,7 @@
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>311261</v>
+        <v>311310</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>311262</v>
+        <v>311311</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>311263</v>
+        <v>311312</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>311264</v>
+        <v>311313</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -6487,7 +6487,7 @@
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>311265</v>
+        <v>311314</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>311266</v>
+        <v>311315</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>311267</v>
+        <v>311316</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>311268</v>
+        <v>311317</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>311269</v>
+        <v>311318</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -6537,7 +6537,7 @@
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>311270</v>
+        <v>311319</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>311271</v>
+        <v>311320</v>
       </c>
       <c r="B612" t="inlineStr">
         <is>
@@ -6557,7 +6557,7 @@
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>311272</v>
+        <v>311321</v>
       </c>
       <c r="B613" t="inlineStr">
         <is>
@@ -6567,7 +6567,7 @@
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>311273</v>
+        <v>311322</v>
       </c>
       <c r="B614" t="inlineStr">
         <is>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>311274</v>
+        <v>311323</v>
       </c>
       <c r="B615" t="inlineStr">
         <is>
@@ -6587,7 +6587,7 @@
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>311275</v>
+        <v>311324</v>
       </c>
       <c r="B616" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>311276</v>
+        <v>311325</v>
       </c>
       <c r="B617" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>311277</v>
+        <v>311326</v>
       </c>
       <c r="B618" t="inlineStr">
         <is>
@@ -6617,7 +6617,7 @@
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>311278</v>
+        <v>311327</v>
       </c>
       <c r="B619" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>311279</v>
+        <v>311328</v>
       </c>
       <c r="B620" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>311280</v>
+        <v>311329</v>
       </c>
       <c r="B621" t="inlineStr">
         <is>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>311281</v>
+        <v>311330</v>
       </c>
       <c r="B622" t="inlineStr">
         <is>
@@ -6657,7 +6657,7 @@
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>311282</v>
+        <v>311331</v>
       </c>
       <c r="B623" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>311283</v>
+        <v>311332</v>
       </c>
       <c r="B624" t="inlineStr">
         <is>
@@ -6677,7 +6677,7 @@
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>311284</v>
+        <v>311333</v>
       </c>
       <c r="B625" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>311285</v>
+        <v>311334</v>
       </c>
       <c r="B626" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>311286</v>
+        <v>311335</v>
       </c>
       <c r="B627" t="inlineStr">
         <is>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>311287</v>
+        <v>311336</v>
       </c>
       <c r="B628" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>311288</v>
+        <v>311337</v>
       </c>
       <c r="B629" t="inlineStr">
         <is>
@@ -6727,7 +6727,7 @@
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>311289</v>
+        <v>311338</v>
       </c>
       <c r="B630" t="inlineStr">
         <is>
@@ -6737,7 +6737,7 @@
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>311290</v>
+        <v>311339</v>
       </c>
       <c r="B631" t="inlineStr">
         <is>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>311291</v>
+        <v>311340</v>
       </c>
       <c r="B632" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>311292</v>
+        <v>311341</v>
       </c>
       <c r="B633" t="inlineStr">
         <is>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>311293</v>
+        <v>311342</v>
       </c>
       <c r="B634" t="inlineStr">
         <is>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>311294</v>
+        <v>311343</v>
       </c>
       <c r="B635" t="inlineStr">
         <is>
@@ -6787,7 +6787,7 @@
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>311295</v>
+        <v>311344</v>
       </c>
       <c r="B636" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>311296</v>
+        <v>311345</v>
       </c>
       <c r="B637" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>311297</v>
+        <v>311346</v>
       </c>
       <c r="B638" t="inlineStr">
         <is>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>311298</v>
+        <v>311347</v>
       </c>
       <c r="B639" t="inlineStr">
         <is>
@@ -6827,7 +6827,7 @@
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>311299</v>
+        <v>311348</v>
       </c>
       <c r="B640" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>311300</v>
+        <v>311349</v>
       </c>
       <c r="B641" t="inlineStr">
         <is>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>311301</v>
+        <v>311350</v>
       </c>
       <c r="B642" t="inlineStr">
         <is>
@@ -6857,7 +6857,7 @@
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>311302</v>
+        <v>311351</v>
       </c>
       <c r="B643" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>311303</v>
+        <v>311352</v>
       </c>
       <c r="B644" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>311304</v>
+        <v>311353</v>
       </c>
       <c r="B645" t="inlineStr">
         <is>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>311305</v>
+        <v>311354</v>
       </c>
       <c r="B646" t="inlineStr">
         <is>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>311306</v>
+        <v>311355</v>
       </c>
       <c r="B647" t="inlineStr">
         <is>
@@ -6907,499 +6907,9 @@
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>311307</v>
+        <v>311356</v>
       </c>
       <c r="B648" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="649">
-      <c r="A649" t="n">
-        <v>311308</v>
-      </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="650">
-      <c r="A650" t="n">
-        <v>311309</v>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="651">
-      <c r="A651" t="n">
-        <v>311310</v>
-      </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="652">
-      <c r="A652" t="n">
-        <v>311311</v>
-      </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="653">
-      <c r="A653" t="n">
-        <v>311312</v>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="654">
-      <c r="A654" t="n">
-        <v>311313</v>
-      </c>
-      <c r="B654" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="655">
-      <c r="A655" t="n">
-        <v>311314</v>
-      </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="656">
-      <c r="A656" t="n">
-        <v>311315</v>
-      </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="657">
-      <c r="A657" t="n">
-        <v>311316</v>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="658">
-      <c r="A658" t="n">
-        <v>311317</v>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="659">
-      <c r="A659" t="n">
-        <v>311318</v>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="660">
-      <c r="A660" t="n">
-        <v>311319</v>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="661">
-      <c r="A661" t="n">
-        <v>311320</v>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="662">
-      <c r="A662" t="n">
-        <v>311321</v>
-      </c>
-      <c r="B662" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="663">
-      <c r="A663" t="n">
-        <v>311322</v>
-      </c>
-      <c r="B663" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="n">
-        <v>311323</v>
-      </c>
-      <c r="B664" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="n">
-        <v>311324</v>
-      </c>
-      <c r="B665" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="n">
-        <v>311325</v>
-      </c>
-      <c r="B666" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="n">
-        <v>311326</v>
-      </c>
-      <c r="B667" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="n">
-        <v>311327</v>
-      </c>
-      <c r="B668" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="n">
-        <v>311328</v>
-      </c>
-      <c r="B669" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="n">
-        <v>311329</v>
-      </c>
-      <c r="B670" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="n">
-        <v>311330</v>
-      </c>
-      <c r="B671" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="n">
-        <v>311331</v>
-      </c>
-      <c r="B672" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="n">
-        <v>311332</v>
-      </c>
-      <c r="B673" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="n">
-        <v>311333</v>
-      </c>
-      <c r="B674" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="n">
-        <v>311334</v>
-      </c>
-      <c r="B675" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="676">
-      <c r="A676" t="n">
-        <v>311335</v>
-      </c>
-      <c r="B676" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="677">
-      <c r="A677" t="n">
-        <v>311336</v>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="678">
-      <c r="A678" t="n">
-        <v>311337</v>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="679">
-      <c r="A679" t="n">
-        <v>311338</v>
-      </c>
-      <c r="B679" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="680">
-      <c r="A680" t="n">
-        <v>311339</v>
-      </c>
-      <c r="B680" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="681">
-      <c r="A681" t="n">
-        <v>311340</v>
-      </c>
-      <c r="B681" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="682">
-      <c r="A682" t="n">
-        <v>311341</v>
-      </c>
-      <c r="B682" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="683">
-      <c r="A683" t="n">
-        <v>311342</v>
-      </c>
-      <c r="B683" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="684">
-      <c r="A684" t="n">
-        <v>311343</v>
-      </c>
-      <c r="B684" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="685">
-      <c r="A685" t="n">
-        <v>311344</v>
-      </c>
-      <c r="B685" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="686">
-      <c r="A686" t="n">
-        <v>311345</v>
-      </c>
-      <c r="B686" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="687">
-      <c r="A687" t="n">
-        <v>311346</v>
-      </c>
-      <c r="B687" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="688">
-      <c r="A688" t="n">
-        <v>311347</v>
-      </c>
-      <c r="B688" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="689">
-      <c r="A689" t="n">
-        <v>311348</v>
-      </c>
-      <c r="B689" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="690">
-      <c r="A690" t="n">
-        <v>311349</v>
-      </c>
-      <c r="B690" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="691">
-      <c r="A691" t="n">
-        <v>311350</v>
-      </c>
-      <c r="B691" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="692">
-      <c r="A692" t="n">
-        <v>311351</v>
-      </c>
-      <c r="B692" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="693">
-      <c r="A693" t="n">
-        <v>311352</v>
-      </c>
-      <c r="B693" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="694">
-      <c r="A694" t="n">
-        <v>311353</v>
-      </c>
-      <c r="B694" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="695">
-      <c r="A695" t="n">
-        <v>311354</v>
-      </c>
-      <c r="B695" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="696">
-      <c r="A696" t="n">
-        <v>311355</v>
-      </c>
-      <c r="B696" t="inlineStr">
-        <is>
-          <t>CEEEI: Incluido</t>
-        </is>
-      </c>
-    </row>
-    <row r="697">
-      <c r="A697" t="n">
-        <v>311356</v>
-      </c>
-      <c r="B697" t="inlineStr">
         <is>
           <t>CEEEI: Incluido</t>
         </is>
